--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7127066666666667</v>
+        <v>0.6148836666666666</v>
       </c>
       <c r="N2">
-        <v>2.13812</v>
+        <v>1.844651</v>
       </c>
       <c r="O2">
-        <v>0.1444650589513412</v>
+        <v>0.1694384198480883</v>
       </c>
       <c r="P2">
-        <v>0.1743027303829945</v>
+        <v>0.1898576456964817</v>
       </c>
       <c r="Q2">
-        <v>108.1361827839778</v>
+        <v>89.02488945051832</v>
       </c>
       <c r="R2">
-        <v>973.2256450558002</v>
+        <v>801.2240050546649</v>
       </c>
       <c r="S2">
-        <v>0.03901624851510999</v>
+        <v>0.04117432111924015</v>
       </c>
       <c r="T2">
-        <v>0.0485148380373533</v>
+        <v>0.0476566768852939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.910423</v>
       </c>
       <c r="O3">
-        <v>0.2642131822440651</v>
+        <v>0.3591876696771482</v>
       </c>
       <c r="P3">
-        <v>0.3187835134849589</v>
+        <v>0.4024738036936923</v>
       </c>
       <c r="Q3">
-        <v>197.7710401149939</v>
+        <v>188.7213219626716</v>
       </c>
       <c r="R3">
-        <v>1779.939361034945</v>
+        <v>1698.491897664045</v>
       </c>
       <c r="S3">
-        <v>0.07135709668643571</v>
+        <v>0.08728426803447506</v>
       </c>
       <c r="T3">
-        <v>0.08872913517601498</v>
+        <v>0.1010260289864162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2092073333333333</v>
+        <v>0.1606106666666667</v>
       </c>
       <c r="N4">
-        <v>0.6276219999999999</v>
+        <v>0.481832</v>
       </c>
       <c r="O4">
-        <v>0.04240615551473195</v>
+        <v>0.04425815653597569</v>
       </c>
       <c r="P4">
-        <v>0.05116468123792665</v>
+        <v>0.04959175971022552</v>
       </c>
       <c r="Q4">
-        <v>31.74220685052556</v>
+        <v>23.25374313825333</v>
       </c>
       <c r="R4">
-        <v>285.67986165473</v>
+        <v>209.28368824428</v>
       </c>
       <c r="S4">
-        <v>0.01145279775014983</v>
+        <v>0.01075493710925575</v>
       </c>
       <c r="T4">
-        <v>0.01424100596724213</v>
+        <v>0.01244816062062414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.533553</v>
+        <v>1.170883</v>
       </c>
       <c r="N5">
-        <v>5.067106</v>
+        <v>2.341766</v>
       </c>
       <c r="O5">
-        <v>0.5135491228294212</v>
+        <v>0.322650569696364</v>
       </c>
       <c r="P5">
-        <v>0.4130780362842373</v>
+        <v>0.2410223828421025</v>
       </c>
       <c r="Q5">
-        <v>384.4060440492984</v>
+        <v>169.524310508315</v>
       </c>
       <c r="R5">
-        <v>2306.43626429579</v>
+        <v>1017.14586304989</v>
       </c>
       <c r="S5">
-        <v>0.1386962380140532</v>
+        <v>0.07840558344379388</v>
       </c>
       <c r="T5">
-        <v>0.1149747567527085</v>
+        <v>0.06049967479104023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H6">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I6">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J6">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1744776666666667</v>
+        <v>0.379099</v>
       </c>
       <c r="N6">
-        <v>0.523433</v>
+        <v>1.137297</v>
       </c>
       <c r="O6">
-        <v>0.03536648046044066</v>
+        <v>0.1044651842424238</v>
       </c>
       <c r="P6">
-        <v>0.04267103860988249</v>
+        <v>0.1170544080574979</v>
       </c>
       <c r="Q6">
-        <v>26.47281095689945</v>
+        <v>54.887206142195</v>
       </c>
       <c r="R6">
-        <v>238.255298612095</v>
+        <v>493.9848552797549</v>
       </c>
       <c r="S6">
-        <v>0.009551564930410627</v>
+        <v>0.02538552381233549</v>
       </c>
       <c r="T6">
-        <v>0.01187691393299064</v>
+        <v>0.0293821409315985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7127066666666667</v>
+        <v>0.6148836666666666</v>
       </c>
       <c r="N7">
-        <v>2.13812</v>
+        <v>1.844651</v>
       </c>
       <c r="O7">
-        <v>0.1444650589513412</v>
+        <v>0.1694384198480883</v>
       </c>
       <c r="P7">
-        <v>0.1743027303829945</v>
+        <v>0.1898576456964817</v>
       </c>
       <c r="Q7">
-        <v>58.61931868750668</v>
+        <v>50.57348737967366</v>
       </c>
       <c r="R7">
-        <v>527.5738681875602</v>
+        <v>455.1613864170629</v>
       </c>
       <c r="S7">
-        <v>0.0211502371067334</v>
+        <v>0.0233904138757501</v>
       </c>
       <c r="T7">
-        <v>0.02629930776884938</v>
+        <v>0.02707292715432363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.910423</v>
       </c>
       <c r="O8">
-        <v>0.2642131822440651</v>
+        <v>0.3591876696771482</v>
       </c>
       <c r="P8">
-        <v>0.3187835134849589</v>
+        <v>0.4024738036936923</v>
       </c>
       <c r="Q8">
         <v>107.2092922941443</v>
       </c>
       <c r="R8">
-        <v>964.883630647299</v>
+        <v>964.8836306472989</v>
       </c>
       <c r="S8">
-        <v>0.03868182030831931</v>
+        <v>0.04958467070424288</v>
       </c>
       <c r="T8">
-        <v>0.04809899256514474</v>
+        <v>0.05739112548747251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2092073333333333</v>
+        <v>0.1606106666666667</v>
       </c>
       <c r="N9">
-        <v>0.6276219999999999</v>
+        <v>0.481832</v>
       </c>
       <c r="O9">
-        <v>0.04240615551473195</v>
+        <v>0.04425815653597569</v>
       </c>
       <c r="P9">
-        <v>0.05116468123792665</v>
+        <v>0.04959175971022552</v>
       </c>
       <c r="Q9">
-        <v>17.20706697158733</v>
+        <v>13.21004600389067</v>
       </c>
       <c r="R9">
-        <v>154.863602744286</v>
+        <v>118.890414035016</v>
       </c>
       <c r="S9">
-        <v>0.006208423340786403</v>
+        <v>0.006109692239117549</v>
       </c>
       <c r="T9">
-        <v>0.007719877341075702</v>
+        <v>0.007071582991374555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
         <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J10">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.533553</v>
+        <v>1.170883</v>
       </c>
       <c r="N10">
-        <v>5.067106</v>
+        <v>2.341766</v>
       </c>
       <c r="O10">
-        <v>0.5135491228294212</v>
+        <v>0.322650569696364</v>
       </c>
       <c r="P10">
-        <v>0.4130780362842373</v>
+        <v>0.2410223828421025</v>
       </c>
       <c r="Q10">
-        <v>208.381873868663</v>
+        <v>96.30380482309299</v>
       </c>
       <c r="R10">
-        <v>1250.291243211978</v>
+        <v>577.8228289385579</v>
       </c>
       <c r="S10">
-        <v>0.07518555554291953</v>
+        <v>0.04454084480491959</v>
       </c>
       <c r="T10">
-        <v>0.06232642704403087</v>
+        <v>0.03436881032264196</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
         <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J11">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1744776666666667</v>
+        <v>0.379099</v>
       </c>
       <c r="N11">
-        <v>0.523433</v>
+        <v>1.137297</v>
       </c>
       <c r="O11">
-        <v>0.03536648046044066</v>
+        <v>0.1044651842424238</v>
       </c>
       <c r="P11">
-        <v>0.04267103860988249</v>
+        <v>0.1170544080574979</v>
       </c>
       <c r="Q11">
-        <v>14.35059109804767</v>
+        <v>31.180464747229</v>
       </c>
       <c r="R11">
-        <v>129.155319882429</v>
+        <v>280.624182725061</v>
       </c>
       <c r="S11">
-        <v>0.005177787991080379</v>
+        <v>0.01442107343321255</v>
       </c>
       <c r="T11">
-        <v>0.006438331601300272</v>
+        <v>0.01669148193009453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7127066666666667</v>
+        <v>0.6148836666666666</v>
       </c>
       <c r="N12">
-        <v>2.13812</v>
+        <v>1.844651</v>
       </c>
       <c r="O12">
-        <v>0.1444650589513412</v>
+        <v>0.1694384198480883</v>
       </c>
       <c r="P12">
-        <v>0.1743027303829945</v>
+        <v>0.1898576456964817</v>
       </c>
       <c r="Q12">
-        <v>87.97959053884</v>
+        <v>100.7542782808246</v>
       </c>
       <c r="R12">
-        <v>791.8163148495601</v>
+        <v>906.7885045274209</v>
       </c>
       <c r="S12">
-        <v>0.03174361698690926</v>
+        <v>0.04659920426385659</v>
       </c>
       <c r="T12">
-        <v>0.03947166873932697</v>
+        <v>0.05393563658968727</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.910423</v>
       </c>
       <c r="O13">
-        <v>0.2642131822440651</v>
+        <v>0.3591876696771482</v>
       </c>
       <c r="P13">
-        <v>0.3187835134849589</v>
+        <v>0.4024738036936923</v>
       </c>
       <c r="Q13">
-        <v>160.906504019261</v>
+        <v>213.5861185328481</v>
       </c>
       <c r="R13">
-        <v>1448.158536173349</v>
+        <v>1922.275066795633</v>
       </c>
       <c r="S13">
-        <v>0.05805612873402832</v>
+        <v>0.09878432296140727</v>
       </c>
       <c r="T13">
-        <v>0.07219001800022691</v>
+        <v>0.114336616433111</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H14">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I14">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J14">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2092073333333333</v>
+        <v>0.1606106666666667</v>
       </c>
       <c r="N14">
-        <v>0.6276219999999999</v>
+        <v>0.481832</v>
       </c>
       <c r="O14">
-        <v>0.04240615551473195</v>
+        <v>0.04425815653597569</v>
       </c>
       <c r="P14">
-        <v>0.05116468123792665</v>
+        <v>0.04959175971022552</v>
       </c>
       <c r="Q14">
-        <v>25.825457211554</v>
+        <v>26.31751773783023</v>
       </c>
       <c r="R14">
-        <v>232.429114903986</v>
+        <v>236.857659640472</v>
       </c>
       <c r="S14">
-        <v>0.00931799542614912</v>
+        <v>0.01217194352149136</v>
       </c>
       <c r="T14">
-        <v>0.01158648143112354</v>
+        <v>0.01408825607081351</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H15">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I15">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J15">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.533553</v>
+        <v>1.170883</v>
       </c>
       <c r="N15">
-        <v>5.067106</v>
+        <v>2.341766</v>
       </c>
       <c r="O15">
-        <v>0.5135491228294212</v>
+        <v>0.322650569696364</v>
       </c>
       <c r="P15">
-        <v>0.4130780362842373</v>
+        <v>0.2410223828421025</v>
       </c>
       <c r="Q15">
-        <v>312.752729802513</v>
+        <v>191.8598232667643</v>
       </c>
       <c r="R15">
-        <v>1876.516378815078</v>
+        <v>1151.158939600586</v>
       </c>
       <c r="S15">
-        <v>0.1128432492769838</v>
+        <v>0.08873583580754928</v>
       </c>
       <c r="T15">
-        <v>0.09354345382815561</v>
+        <v>0.06847075135301237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H16">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I16">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J16">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1744776666666667</v>
+        <v>0.379099</v>
       </c>
       <c r="N16">
-        <v>0.523433</v>
+        <v>1.137297</v>
       </c>
       <c r="O16">
-        <v>0.03536648046044066</v>
+        <v>0.1044651842424238</v>
       </c>
       <c r="P16">
-        <v>0.04267103860988249</v>
+        <v>0.1170544080574979</v>
       </c>
       <c r="Q16">
-        <v>21.538277091331</v>
+        <v>62.11881728627634</v>
       </c>
       <c r="R16">
-        <v>193.844493821979</v>
+        <v>559.0693555764869</v>
       </c>
       <c r="S16">
-        <v>0.007771152540694101</v>
+        <v>0.028730169127749</v>
       </c>
       <c r="T16">
-        <v>0.009663056322017536</v>
+        <v>0.03325335669811882</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7127066666666667</v>
+        <v>0.6148836666666666</v>
       </c>
       <c r="N17">
-        <v>2.13812</v>
+        <v>1.844651</v>
       </c>
       <c r="O17">
-        <v>0.1444650589513412</v>
+        <v>0.1694384198480883</v>
       </c>
       <c r="P17">
-        <v>0.1743027303829945</v>
+        <v>0.1898576456964817</v>
       </c>
       <c r="Q17">
-        <v>35.65836266750001</v>
+        <v>35.06300907266149</v>
       </c>
       <c r="R17">
-        <v>213.950176005</v>
+        <v>210.378054435969</v>
       </c>
       <c r="S17">
-        <v>0.0128657726179996</v>
+        <v>0.01621676369243938</v>
       </c>
       <c r="T17">
-        <v>0.01066531506817279</v>
+        <v>0.01251325334832886</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H18">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I18">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J18">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.910423</v>
       </c>
       <c r="O18">
-        <v>0.2642131822440651</v>
+        <v>0.3591876696771482</v>
       </c>
       <c r="P18">
-        <v>0.3187835134849589</v>
+        <v>0.4024738036936923</v>
       </c>
       <c r="Q18">
-        <v>65.2158351810625</v>
+        <v>74.3290720721395</v>
       </c>
       <c r="R18">
-        <v>391.295011086375</v>
+        <v>445.974432432837</v>
       </c>
       <c r="S18">
-        <v>0.02353030379875583</v>
+        <v>0.03437745444990944</v>
       </c>
       <c r="T18">
-        <v>0.01950587120686839</v>
+        <v>0.02652648858680162</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H19">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I19">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J19">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2092073333333333</v>
+        <v>0.1606106666666667</v>
       </c>
       <c r="N19">
-        <v>0.6276219999999999</v>
+        <v>0.481832</v>
       </c>
       <c r="O19">
-        <v>0.04240615551473195</v>
+        <v>0.04425815653597569</v>
       </c>
       <c r="P19">
-        <v>0.05116468123792665</v>
+        <v>0.04959175971022552</v>
       </c>
       <c r="Q19">
-        <v>10.467126678625</v>
+        <v>9.158632059668001</v>
       </c>
       <c r="R19">
-        <v>62.80276007174999</v>
+        <v>54.95179235800801</v>
       </c>
       <c r="S19">
-        <v>0.003776608395251034</v>
+        <v>0.004235899193644465</v>
       </c>
       <c r="T19">
-        <v>0.003130687881745056</v>
+        <v>0.003268523903617536</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H20">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I20">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J20">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.533553</v>
+        <v>1.170883</v>
       </c>
       <c r="N20">
-        <v>5.067106</v>
+        <v>2.341766</v>
       </c>
       <c r="O20">
-        <v>0.5135491228294212</v>
+        <v>0.322650569696364</v>
       </c>
       <c r="P20">
-        <v>0.4130780362842373</v>
+        <v>0.2410223828421025</v>
       </c>
       <c r="Q20">
-        <v>126.7595154313125</v>
+        <v>66.76820913878849</v>
       </c>
       <c r="R20">
-        <v>507.03806172525</v>
+        <v>267.072836555154</v>
       </c>
       <c r="S20">
-        <v>0.04573566985994807</v>
+        <v>0.03088052903637789</v>
       </c>
       <c r="T20">
-        <v>0.02527560753083491</v>
+        <v>0.01588545000680491</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H21">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I21">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J21">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1744776666666667</v>
+        <v>0.379099</v>
       </c>
       <c r="N21">
-        <v>0.523433</v>
+        <v>1.137297</v>
       </c>
       <c r="O21">
-        <v>0.03536648046044066</v>
+        <v>0.1044651842424238</v>
       </c>
       <c r="P21">
-        <v>0.04267103860988249</v>
+        <v>0.1170544080574979</v>
       </c>
       <c r="Q21">
-        <v>8.7295211429375</v>
+        <v>21.6176691576405</v>
       </c>
       <c r="R21">
-        <v>52.37712685762501</v>
+        <v>129.706014945843</v>
       </c>
       <c r="S21">
-        <v>0.003149668848688279</v>
+        <v>0.009998247200755176</v>
       </c>
       <c r="T21">
-        <v>0.002610974997698392</v>
+        <v>0.00771489322006947</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H22">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I22">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J22">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7127066666666667</v>
+        <v>0.6148836666666666</v>
       </c>
       <c r="N22">
-        <v>2.13812</v>
+        <v>1.844651</v>
       </c>
       <c r="O22">
-        <v>0.1444650589513412</v>
+        <v>0.1694384198480883</v>
       </c>
       <c r="P22">
-        <v>0.1743027303829945</v>
+        <v>0.1898576456964817</v>
       </c>
       <c r="Q22">
-        <v>110.0012684235111</v>
+        <v>90.93492000598889</v>
       </c>
       <c r="R22">
-        <v>990.0114158116002</v>
+        <v>818.4142800538999</v>
       </c>
       <c r="S22">
-        <v>0.03968918372458899</v>
+        <v>0.04205771689680209</v>
       </c>
       <c r="T22">
-        <v>0.04935160076929208</v>
+        <v>0.04867915171884809</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H23">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I23">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J23">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.910423</v>
       </c>
       <c r="O23">
-        <v>0.2642131822440651</v>
+        <v>0.3591876696771482</v>
       </c>
       <c r="P23">
-        <v>0.3187835134849589</v>
+        <v>0.4024738036936923</v>
       </c>
       <c r="Q23">
-        <v>201.1821086152655</v>
+        <v>192.7703412160778</v>
       </c>
       <c r="R23">
-        <v>1810.63897753739</v>
+        <v>1734.9330709447</v>
       </c>
       <c r="S23">
-        <v>0.07258783271652591</v>
+        <v>0.08915695352711354</v>
       </c>
       <c r="T23">
-        <v>0.09025949653670393</v>
+        <v>0.103193544199891</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H24">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I24">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J24">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2092073333333333</v>
+        <v>0.1606106666666667</v>
       </c>
       <c r="N24">
-        <v>0.6276219999999999</v>
+        <v>0.481832</v>
       </c>
       <c r="O24">
-        <v>0.04240615551473195</v>
+        <v>0.04425815653597569</v>
       </c>
       <c r="P24">
-        <v>0.05116468123792665</v>
+        <v>0.04959175971022552</v>
       </c>
       <c r="Q24">
-        <v>32.28968256716222</v>
+        <v>23.75265260275556</v>
       </c>
       <c r="R24">
-        <v>290.60714310446</v>
+        <v>213.7738734248</v>
       </c>
       <c r="S24">
-        <v>0.01165033060239555</v>
+        <v>0.01098568447246658</v>
       </c>
       <c r="T24">
-        <v>0.01448662861674023</v>
+        <v>0.01271523612379579</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H25">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I25">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J25">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.533553</v>
+        <v>1.170883</v>
       </c>
       <c r="N25">
-        <v>5.067106</v>
+        <v>2.341766</v>
       </c>
       <c r="O25">
-        <v>0.5135491228294212</v>
+        <v>0.322650569696364</v>
       </c>
       <c r="P25">
-        <v>0.4130780362842373</v>
+        <v>0.2410223828421025</v>
       </c>
       <c r="Q25">
-        <v>391.0361115627633</v>
+        <v>173.1614575462333</v>
       </c>
       <c r="R25">
-        <v>2346.21666937658</v>
+        <v>1038.9687452774</v>
       </c>
       <c r="S25">
-        <v>0.1410884101355166</v>
+        <v>0.0800877766037234</v>
       </c>
       <c r="T25">
-        <v>0.1169577911285075</v>
+        <v>0.06179769636860307</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H26">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I26">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J26">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1744776666666667</v>
+        <v>0.379099</v>
       </c>
       <c r="N26">
-        <v>0.523433</v>
+        <v>1.137297</v>
       </c>
       <c r="O26">
-        <v>0.03536648046044066</v>
+        <v>0.1044651842424238</v>
       </c>
       <c r="P26">
-        <v>0.04267103860988249</v>
+        <v>0.1170544080574979</v>
       </c>
       <c r="Q26">
-        <v>26.92940243518778</v>
+        <v>56.06481210703334</v>
       </c>
       <c r="R26">
-        <v>242.36462191669</v>
+        <v>504.5833089633</v>
       </c>
       <c r="S26">
-        <v>0.009716306149567276</v>
+        <v>0.0259301706683716</v>
       </c>
       <c r="T26">
-        <v>0.01208176175587566</v>
+        <v>0.03001253527761662</v>
       </c>
     </row>
   </sheetData>
